--- a/Document Library/Bill Of Materials/V-King CoreXY V2 - Part Order List.xlsx
+++ b/Document Library/Bill Of Materials/V-King CoreXY V2 - Part Order List.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-King CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="607" documentId="6_{B6BB48D1-6332-477D-B7B9-3E9DE76C918E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{78C8B38B-B96E-4541-9FCE-BEFC7EA5DF2E}"/>
+  <xr:revisionPtr revIDLastSave="632" documentId="6_{B6BB48D1-6332-477D-B7B9-3E9DE76C918E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{839B0EB5-D140-49FE-A8FE-0D49C5DA7EC7}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="135">
   <si>
     <t>Description</t>
   </si>
@@ -100,9 +100,6 @@
     <t>MakerSupplies Mechanical Kit</t>
   </si>
   <si>
-    <t>Fasteners included</t>
-  </si>
-  <si>
     <t xml:space="preserve"> 5id-16od-5w Ball bearings</t>
   </si>
   <si>
@@ -112,9 +109,6 @@
     <t>Tools - Add your number</t>
   </si>
   <si>
-    <t>Komplete Mechanichal Kit</t>
-  </si>
-  <si>
     <t>Tools</t>
   </si>
   <si>
@@ -127,9 +121,6 @@
     <t>Thermal Safety Fuse for SSR</t>
   </si>
   <si>
-    <t>Kit Price</t>
-  </si>
-  <si>
     <t>&lt;&lt;-- ALL HARDWARE KIT HERE</t>
   </si>
   <si>
@@ -452,6 +443,9 @@
   </si>
   <si>
     <t>1,75 24V Trianglelab Dragon</t>
+  </si>
+  <si>
+    <t>V-King CoreXY Part List</t>
   </si>
 </sst>
 </file>
@@ -464,7 +458,7 @@
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -529,6 +523,12 @@
       <color rgb="FFFF0000"/>
       <name val="Black Ops One"/>
     </font>
+    <font>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Freestyle Script"/>
+      <family val="4"/>
+    </font>
   </fonts>
   <fills count="10">
     <fill>
@@ -584,7 +584,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -652,17 +652,6 @@
     <border>
       <left/>
       <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -779,6 +768,46 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -787,7 +816,7 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -803,39 +832,28 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="7" borderId="13" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="5" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="7" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="14" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="15" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="13" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="5" fillId="2" borderId="14" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="1" fontId="1" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="6" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
@@ -854,18 +872,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="166" fontId="0" fillId="7" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="167" fontId="1" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="11" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="167" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -875,6 +892,39 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="17" xfId="3" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="49" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1146,69 +1196,18 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>644601</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>59532</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>254871</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>69455</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA457A44-496B-477E-B0A4-B115352A12AD}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7460929" y="3839766"/>
-          <a:ext cx="910035" cy="952500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>59818</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>79373</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="436786" cy="2651760"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="3" name="TextBox 2">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3FD842-1E0C-46C1-BF23-B048EF121417}"/>
@@ -1268,16 +1267,16 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>679083</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>99219</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>14547</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>3232</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="2402888" cy="843233"/>
+    <xdr:ext cx="4253242" cy="661304"/>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
         <xdr:cNvPr id="4" name="TextBox 3">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7001D85-C05D-4B91-B94D-D02DF0CF2F31}"/>
@@ -1288,8 +1287,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6800880" y="2936875"/>
-          <a:ext cx="2402888" cy="843233"/>
+          <a:off x="2237047" y="3232"/>
+          <a:ext cx="4253242" cy="661304"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1359,17 +1358,6 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-          </a:br>
           <a:r>
             <a:rPr lang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
               <a:solidFill>
@@ -1388,6 +1376,56 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>14768</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>3398</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C4016D3E-2936-4343-8EC8-9ABF79C0324A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14768"/>
+          <a:ext cx="723900" cy="704851"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -1725,44 +1763,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25">
-      <c r="A1" s="66" t="s">
-        <v>98</v>
-      </c>
-      <c r="B1" s="66"/>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
+      <c r="A1" s="56" t="s">
+        <v>95</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="67" t="s">
-        <v>99</v>
-      </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
+      <c r="A2" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="68"/>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="68"/>
-      <c r="H3" s="68"/>
-      <c r="I3" s="68"/>
-      <c r="J3" s="68"/>
+      <c r="A3" s="58"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="58"/>
+      <c r="D3" s="58"/>
+      <c r="E3" s="58"/>
+      <c r="F3" s="58"/>
+      <c r="G3" s="58"/>
+      <c r="H3" s="58"/>
+      <c r="I3" s="58"/>
+      <c r="J3" s="58"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3"/>
@@ -1773,10 +1811,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="B5" s="8">
-        <f>'Complete Part List'!E2</f>
+        <f>'Complete Part List'!E4</f>
         <v>345</v>
       </c>
     </row>
@@ -1785,13 +1823,13 @@
         <v>15</v>
       </c>
       <c r="B6" s="8">
-        <f>'Complete Part List'!E30</f>
+        <f>'Complete Part List'!E32</f>
         <v>522</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" s="8">
         <v>50</v>
@@ -1799,7 +1837,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="8">
         <v>0</v>
@@ -1849,9 +1887,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J31"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="96" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1865,625 +1905,636 @@
     <col min="8" max="8" width="7.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15" thickBot="1">
-      <c r="A1" s="11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B1" s="12" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="69"/>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="71"/>
+    </row>
+    <row r="2" spans="1:10" ht="27">
+      <c r="A2" s="64"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="73" t="s">
+        <v>134</v>
+      </c>
+      <c r="E2" s="66"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="68"/>
+    </row>
+    <row r="3" spans="1:10" ht="15" thickBot="1">
+      <c r="A3" s="74"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="75"/>
+    </row>
+    <row r="4" spans="1:10" ht="15" thickBot="1">
+      <c r="A4" s="46" t="s">
+        <v>18</v>
+      </c>
+      <c r="B4" s="47" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="59">
+        <v>345</v>
+      </c>
+      <c r="F4" s="62"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>73</v>
+      </c>
+      <c r="E5" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="60" t="s">
+        <v>32</v>
+      </c>
+      <c r="G5" s="61" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="C6" s="30">
+        <v>6</v>
+      </c>
+      <c r="D6" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="E6" s="32">
+        <v>22</v>
+      </c>
+      <c r="F6" s="10"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="14" t="s">
+        <v>94</v>
+      </c>
+      <c r="B7" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="16">
+        <v>8</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E7" s="31">
+        <v>25</v>
+      </c>
+      <c r="F7" s="10"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>59</v>
+      </c>
+      <c r="C8" s="30">
+        <v>4</v>
+      </c>
+      <c r="D8" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="E8" s="32">
+        <v>13</v>
+      </c>
+      <c r="F8" s="13"/>
+      <c r="G8" s="21"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="14" t="s">
+        <v>87</v>
+      </c>
+      <c r="B9" t="s">
+        <v>89</v>
+      </c>
+      <c r="C9" s="16">
+        <v>10</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="31">
+        <v>30</v>
+      </c>
+      <c r="F9" s="10"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C10" s="30">
+        <v>80</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="E10" s="32">
+        <v>20</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E11" s="31">
+        <v>2.5</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B12" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="C12" s="30">
+        <v>1</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" s="32">
+        <v>2.5</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="14" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>77</v>
+      </c>
+      <c r="C13" s="16">
+        <v>1</v>
+      </c>
+      <c r="D13" s="17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="31">
+        <v>3</v>
+      </c>
+      <c r="F13" s="18"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="28" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" s="30">
+        <v>1</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>126</v>
+      </c>
+      <c r="E14" s="32">
+        <v>60</v>
+      </c>
+      <c r="F14" s="18"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="30">
+        <v>3</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>130</v>
+      </c>
+      <c r="E15" s="32">
+        <v>4</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>128</v>
+      </c>
+      <c r="C16" s="16">
+        <v>1</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" s="31">
+        <v>31</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>39</v>
+      </c>
+      <c r="C17" s="30">
+        <v>1</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="32">
+        <v>3</v>
+      </c>
+      <c r="F17" s="10"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="16">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="E18" s="31">
+        <v>2</v>
+      </c>
+      <c r="F18" s="10"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>35</v>
+      </c>
+      <c r="C19" s="30">
+        <v>2</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="E19" s="32">
+        <v>10</v>
+      </c>
+      <c r="F19" s="10"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="14" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>68</v>
+      </c>
+      <c r="C20" s="16">
+        <v>1</v>
+      </c>
+      <c r="D20" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="E20" s="31">
+        <v>89</v>
+      </c>
+      <c r="F20" s="10"/>
+      <c r="G20" s="15"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="28" t="s">
+        <v>84</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="C21" s="30">
+        <v>1</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>45</v>
+      </c>
+      <c r="E21" s="32">
+        <v>16</v>
+      </c>
+      <c r="F21" s="10"/>
+      <c r="G21" s="15"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="B22" s="29" t="s">
+        <v>132</v>
+      </c>
+      <c r="C22" s="30">
+        <v>1</v>
+      </c>
+      <c r="D22" s="55" t="s">
+        <v>133</v>
+      </c>
+      <c r="E22" s="32">
+        <v>73</v>
+      </c>
+      <c r="F22" s="10"/>
+      <c r="G22" s="15"/>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D23" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="E23" s="31">
+        <v>30</v>
+      </c>
+      <c r="F23" s="13"/>
+      <c r="G23" s="15"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" s="28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C24" s="30">
+        <v>1</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" s="32">
+        <v>8.5</v>
+      </c>
+      <c r="F24" s="13"/>
+      <c r="G24" s="15"/>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" s="16">
+        <v>1</v>
+      </c>
+      <c r="D25" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="31">
+        <v>20</v>
+      </c>
+      <c r="F25" s="13"/>
+      <c r="G25" s="15"/>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" s="28" t="s">
+        <v>48</v>
+      </c>
+      <c r="B26" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="30">
+        <v>1</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>24</v>
+      </c>
+      <c r="E26" s="32">
+        <v>2</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="15"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B27" t="s">
+        <v>46</v>
+      </c>
+      <c r="C27" s="16">
+        <v>1</v>
+      </c>
+      <c r="D27" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E27" s="31">
+        <v>3.5</v>
+      </c>
+      <c r="F27" s="10"/>
+      <c r="G27" s="15"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" t="s">
+        <v>7</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1</v>
+      </c>
+      <c r="D28" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" s="31">
+        <v>16</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="15">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-    </row>
-    <row r="2" spans="1:10" ht="15" thickBot="1">
-      <c r="A2" s="55" t="s">
-        <v>18</v>
-      </c>
-      <c r="B2" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="63">
-        <v>345</v>
-      </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10">
-      <c r="A3" s="33" t="s">
-        <v>17</v>
-      </c>
-      <c r="B3" s="34" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D3" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E3" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="G3" s="31" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="39">
-        <v>6</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>66</v>
-      </c>
-      <c r="E4" s="41">
-        <v>22</v>
-      </c>
-      <c r="F4" s="10"/>
-      <c r="G4" s="18"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" t="s">
-        <v>63</v>
-      </c>
-      <c r="C5" s="19">
+      <c r="C29" s="30">
+        <v>10</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>12</v>
+      </c>
+      <c r="E29" s="32">
+        <v>4</v>
+      </c>
+      <c r="F29" s="14"/>
+      <c r="G29" s="12"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>64</v>
-      </c>
-      <c r="E5" s="40">
-        <v>25</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="18"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="B6" s="38" t="s">
-        <v>62</v>
-      </c>
-      <c r="C6" s="39">
-        <v>4</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>94</v>
-      </c>
-      <c r="E6" s="41">
-        <v>13</v>
-      </c>
-      <c r="F6" s="16"/>
-      <c r="G6" s="28"/>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" t="s">
-        <v>92</v>
-      </c>
-      <c r="C7" s="19">
-        <v>10</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>93</v>
-      </c>
-      <c r="E7" s="40">
-        <v>30</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="18"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="C8" s="39">
-        <v>80</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>82</v>
-      </c>
-      <c r="E8" s="41">
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="16">
+        <v>1</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30" s="31">
         <v>20</v>
       </c>
-      <c r="F8" s="10" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="18"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-      <c r="C9" s="19">
+      <c r="F30" s="14"/>
+      <c r="G30" s="12"/>
+    </row>
+    <row r="31" spans="1:7" ht="15" thickBot="1">
+      <c r="A31" s="28" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" s="29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="30">
         <v>1</v>
       </c>
-      <c r="D9" s="20" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="40">
-        <v>2.5</v>
-      </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="18"/>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="38" t="s">
-        <v>73</v>
-      </c>
-      <c r="C10" s="39">
-        <v>1</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="41">
-        <v>2.5</v>
-      </c>
-      <c r="F10" s="21"/>
-      <c r="G10" s="18"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="17" t="s">
-        <v>83</v>
-      </c>
-      <c r="B11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C11" s="19">
-        <v>1</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>91</v>
-      </c>
-      <c r="E11" s="40">
-        <v>3</v>
-      </c>
-      <c r="F11" s="21"/>
-      <c r="G11" s="18"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B12" s="38" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="39">
-        <v>1</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>129</v>
-      </c>
-      <c r="E12" s="41">
-        <v>60</v>
-      </c>
-      <c r="F12" s="21"/>
-      <c r="G12" s="18"/>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="37" t="s">
-        <v>89</v>
-      </c>
-      <c r="B13" s="38" t="s">
+      <c r="D31" s="33" t="s">
         <v>44</v>
       </c>
-      <c r="C13" s="39">
-        <v>3</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>133</v>
-      </c>
-      <c r="E13" s="41">
-        <v>4</v>
-      </c>
-      <c r="F13" s="10"/>
-      <c r="G13" s="18"/>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="17" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" t="s">
-        <v>131</v>
-      </c>
-      <c r="C14" s="19">
-        <v>1</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="40">
-        <v>31</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="18"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="C15" s="39">
-        <v>1</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="E15" s="41">
-        <v>3</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="18"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="17" t="s">
-        <v>85</v>
-      </c>
-      <c r="B16" t="s">
-        <v>40</v>
-      </c>
-      <c r="C16" s="19">
-        <v>1</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="E16" s="40">
-        <v>2</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="18"/>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" s="39">
-        <v>2</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>39</v>
-      </c>
-      <c r="E17" s="41">
-        <v>10</v>
-      </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="18"/>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" s="17" t="s">
-        <v>70</v>
-      </c>
-      <c r="B18" t="s">
+      <c r="E31" s="32">
+        <v>12</v>
+      </c>
+      <c r="F31" s="19"/>
+      <c r="G31" s="15"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1">
+      <c r="A32" s="49" t="s">
         <v>71</v>
       </c>
-      <c r="C18" s="19">
-        <v>1</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="E18" s="40">
-        <v>89</v>
-      </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="18"/>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="B19" s="38" t="s">
-        <v>77</v>
-      </c>
-      <c r="C19" s="39">
-        <v>1</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="41">
-        <v>16</v>
-      </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="18"/>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" s="37" t="s">
-        <v>134</v>
-      </c>
-      <c r="B20" s="38" t="s">
-        <v>135</v>
-      </c>
-      <c r="C20" s="39">
-        <v>1</v>
-      </c>
-      <c r="D20" s="65" t="s">
-        <v>136</v>
-      </c>
-      <c r="E20" s="41">
-        <v>73</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="18"/>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" s="17" t="s">
-        <v>88</v>
-      </c>
-      <c r="B21" t="s">
-        <v>69</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D21" s="10" t="s">
-        <v>78</v>
-      </c>
-      <c r="E21" s="40">
-        <v>30</v>
-      </c>
-      <c r="F21" s="16"/>
-      <c r="G21" s="18"/>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" s="37" t="s">
-        <v>59</v>
-      </c>
-      <c r="B22" s="38" t="s">
-        <v>60</v>
-      </c>
-      <c r="C22" s="39">
-        <v>1</v>
-      </c>
-      <c r="D22" s="65" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="41">
-        <v>8.5</v>
-      </c>
-      <c r="F22" s="16"/>
-      <c r="G22" s="18"/>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" s="17" t="s">
-        <v>56</v>
-      </c>
-      <c r="B23" t="s">
-        <v>57</v>
-      </c>
-      <c r="C23" s="19">
-        <v>1</v>
-      </c>
-      <c r="D23" s="10" t="s">
-        <v>58</v>
-      </c>
-      <c r="E23" s="40">
-        <v>20</v>
-      </c>
-      <c r="F23" s="16"/>
-      <c r="G23" s="18"/>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" s="37" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="39">
-        <v>1</v>
-      </c>
-      <c r="D24" s="65" t="s">
-        <v>26</v>
-      </c>
-      <c r="E24" s="41">
-        <v>2</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="18"/>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="B25" t="s">
-        <v>49</v>
-      </c>
-      <c r="C25" s="19">
-        <v>1</v>
-      </c>
-      <c r="D25" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="E25" s="40">
-        <v>3.5</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="18"/>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" s="17" t="s">
-        <v>6</v>
-      </c>
-      <c r="B26" t="s">
-        <v>7</v>
-      </c>
-      <c r="C26" s="19">
-        <v>1</v>
-      </c>
-      <c r="D26" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="40">
-        <v>16</v>
-      </c>
-      <c r="F26" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="G26" s="18">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" s="37" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" s="38" t="s">
-        <v>20</v>
-      </c>
-      <c r="C27" s="39">
-        <v>10</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>12</v>
-      </c>
-      <c r="E27" s="41">
-        <v>4</v>
-      </c>
-      <c r="F27" s="17"/>
-      <c r="G27" s="15"/>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="B28" t="s">
-        <v>16</v>
-      </c>
-      <c r="C28" s="19">
-        <v>1</v>
-      </c>
-      <c r="D28" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="E28" s="40">
-        <v>20</v>
-      </c>
-      <c r="F28" s="17"/>
-      <c r="G28" s="15"/>
-    </row>
-    <row r="29" spans="1:7" ht="15" thickBot="1">
-      <c r="A29" s="37" t="s">
-        <v>45</v>
-      </c>
-      <c r="B29" s="38" t="s">
-        <v>46</v>
-      </c>
-      <c r="C29" s="39">
-        <v>1</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>47</v>
-      </c>
-      <c r="E29" s="41">
-        <v>12</v>
-      </c>
-      <c r="F29" s="22"/>
-      <c r="G29" s="18"/>
-    </row>
-    <row r="30" spans="1:7" ht="15" thickBot="1">
-      <c r="A30" s="58" t="s">
-        <v>74</v>
-      </c>
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="60">
-        <f>SUM(E4:E29)</f>
+      <c r="B32" s="50"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="50"/>
+      <c r="E32" s="51">
+        <f>SUM(E6:E31)</f>
         <v>522</v>
       </c>
-      <c r="F30" s="32"/>
-      <c r="G30" s="23"/>
-    </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1">
-      <c r="A31" s="61" t="s">
-        <v>130</v>
-      </c>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="64">
-        <f>E2+E30</f>
+      <c r="F32" s="23"/>
+      <c r="G32" s="20"/>
+    </row>
+    <row r="33" spans="1:5" ht="15" thickBot="1">
+      <c r="A33" s="52" t="s">
+        <v>127</v>
+      </c>
+      <c r="B33" s="53"/>
+      <c r="C33" s="53"/>
+      <c r="D33" s="53"/>
+      <c r="E33" s="54">
+        <f>E4+E32</f>
         <v>867</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:E29">
-    <sortCondition ref="A4:A29"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A6:E31">
+    <sortCondition ref="A6:A31"/>
   </sortState>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" xr:uid="{599CC434-2A6F-4512-9E0C-23C6EEDFFD8B}"/>
-    <hyperlink ref="F26" r:id="rId2" display="High End Gir" xr:uid="{28447230-615D-4601-8C54-3E6E923696EA}"/>
-    <hyperlink ref="D19" r:id="rId3" xr:uid="{109336C6-569B-44BA-9F86-E5ED829EA7BE}"/>
-    <hyperlink ref="D15" r:id="rId4" xr:uid="{ABEEC490-585D-46C9-AF47-C5DC4C362505}"/>
-    <hyperlink ref="D23" r:id="rId5" display="Link" xr:uid="{EA1D4CB3-F441-46FD-AB72-26C7E85CFE13}"/>
-    <hyperlink ref="D17" r:id="rId6" display="24V Dual Ball" xr:uid="{FE57A7BC-6E5C-4334-8E3D-0671312F83DB}"/>
-    <hyperlink ref="D16" r:id="rId7" xr:uid="{C50EC4C6-C01B-482B-95BC-060EB2FD546F}"/>
-    <hyperlink ref="D7" r:id="rId8" display="5 Meter Gates LL" xr:uid="{E97E400B-1448-4FB7-984C-8286CE78E4C0}"/>
-    <hyperlink ref="D22" r:id="rId9" display="Link" xr:uid="{EF58CD57-7A6E-4296-BA57-75879899B71F}"/>
-    <hyperlink ref="D6" r:id="rId10" display="5 BORE" xr:uid="{B39C2282-15E1-4EF5-A621-806E24BBBCB2}"/>
-    <hyperlink ref="D25" r:id="rId11" xr:uid="{97A63429-0ACA-441B-94D7-DCD85A0C3AA8}"/>
-    <hyperlink ref="D24" r:id="rId12" xr:uid="{78FD08FC-9E50-4A46-AA77-52CB1D5B92CB}"/>
-    <hyperlink ref="D21" r:id="rId13" xr:uid="{12712B8E-4E38-47EC-B56B-DE1FF5BD82D5}"/>
-    <hyperlink ref="D14" r:id="rId14" display="TriangleLab" xr:uid="{004F3DF1-D699-480D-B0C2-89E7357E482F}"/>
-    <hyperlink ref="D20" r:id="rId15" xr:uid="{0C120CF7-6D42-42D2-81C7-4F2CA421D87C}"/>
-    <hyperlink ref="D9" r:id="rId16" xr:uid="{68EEE9E9-5FAB-4925-B5EA-8501A87B9C86}"/>
-    <hyperlink ref="D13" r:id="rId17" display="6Pcs Endstops" xr:uid="{0A215023-AD65-435D-981F-D72880AF4EFC}"/>
-    <hyperlink ref="D29" r:id="rId18" xr:uid="{9A616DCA-6618-439E-AFC9-0AADE7D7ED1E}"/>
-    <hyperlink ref="D5" r:id="rId19" xr:uid="{3366CF18-9C57-42C9-9232-A0E2D42CDD07}"/>
-    <hyperlink ref="D4" r:id="rId20" display="5X High End" xr:uid="{EF9C54D9-37AD-4C5E-B005-857A5A0F0E0E}"/>
-    <hyperlink ref="D8" r:id="rId21" display="6x5x1 Option Shim" xr:uid="{949580A7-19FA-4649-8810-0D86754E89D0}"/>
-    <hyperlink ref="D12" r:id="rId22" xr:uid="{7E9D3A2C-C2E0-4E2C-8DBD-55F5FC458537}"/>
-    <hyperlink ref="D18" r:id="rId23" location="/4787-type-v_king_core_xy" display="6mm 210x210 mm" xr:uid="{5F418D3C-9E76-43F5-9055-4339D666308A}"/>
-    <hyperlink ref="D10" r:id="rId24" display="Cable Loom - Bowden Path" xr:uid="{69218DAD-E142-456F-9628-BEBE868DEB65}"/>
-    <hyperlink ref="D26" r:id="rId25" xr:uid="{07E428D0-A4C2-40A9-A449-D45DAAE2693B}"/>
-    <hyperlink ref="D27" r:id="rId26" xr:uid="{372D6460-8848-41C6-A442-111658CF6E3A}"/>
-    <hyperlink ref="D28" r:id="rId27" xr:uid="{A2789E00-3D11-4827-8310-3C44FB602031}"/>
-    <hyperlink ref="D11" r:id="rId28" display="5m - 10mm Sleeve" xr:uid="{34430D84-CB59-4A69-B6BD-ADDA018B10B1}"/>
-    <hyperlink ref="F8" r:id="rId29" display="NB! 200 pcs option is same price" xr:uid="{85332E1F-3AA7-480D-9FAD-326FED577B03}"/>
+    <hyperlink ref="A4" r:id="rId1" xr:uid="{599CC434-2A6F-4512-9E0C-23C6EEDFFD8B}"/>
+    <hyperlink ref="F28" r:id="rId2" display="High End Gir" xr:uid="{28447230-615D-4601-8C54-3E6E923696EA}"/>
+    <hyperlink ref="D21" r:id="rId3" xr:uid="{109336C6-569B-44BA-9F86-E5ED829EA7BE}"/>
+    <hyperlink ref="D17" r:id="rId4" xr:uid="{ABEEC490-585D-46C9-AF47-C5DC4C362505}"/>
+    <hyperlink ref="D25" r:id="rId5" display="Link" xr:uid="{EA1D4CB3-F441-46FD-AB72-26C7E85CFE13}"/>
+    <hyperlink ref="D19" r:id="rId6" display="24V Dual Ball" xr:uid="{FE57A7BC-6E5C-4334-8E3D-0671312F83DB}"/>
+    <hyperlink ref="D18" r:id="rId7" xr:uid="{C50EC4C6-C01B-482B-95BC-060EB2FD546F}"/>
+    <hyperlink ref="D9" r:id="rId8" display="5 Meter Gates LL" xr:uid="{E97E400B-1448-4FB7-984C-8286CE78E4C0}"/>
+    <hyperlink ref="D24" r:id="rId9" display="Link" xr:uid="{EF58CD57-7A6E-4296-BA57-75879899B71F}"/>
+    <hyperlink ref="D8" r:id="rId10" display="5 BORE" xr:uid="{B39C2282-15E1-4EF5-A621-806E24BBBCB2}"/>
+    <hyperlink ref="D27" r:id="rId11" xr:uid="{97A63429-0ACA-441B-94D7-DCD85A0C3AA8}"/>
+    <hyperlink ref="D26" r:id="rId12" xr:uid="{78FD08FC-9E50-4A46-AA77-52CB1D5B92CB}"/>
+    <hyperlink ref="D23" r:id="rId13" xr:uid="{12712B8E-4E38-47EC-B56B-DE1FF5BD82D5}"/>
+    <hyperlink ref="D16" r:id="rId14" display="TriangleLab" xr:uid="{004F3DF1-D699-480D-B0C2-89E7357E482F}"/>
+    <hyperlink ref="D22" r:id="rId15" xr:uid="{0C120CF7-6D42-42D2-81C7-4F2CA421D87C}"/>
+    <hyperlink ref="D11" r:id="rId16" xr:uid="{68EEE9E9-5FAB-4925-B5EA-8501A87B9C86}"/>
+    <hyperlink ref="D15" r:id="rId17" display="6Pcs Endstops" xr:uid="{0A215023-AD65-435D-981F-D72880AF4EFC}"/>
+    <hyperlink ref="D31" r:id="rId18" xr:uid="{9A616DCA-6618-439E-AFC9-0AADE7D7ED1E}"/>
+    <hyperlink ref="D7" r:id="rId19" xr:uid="{3366CF18-9C57-42C9-9232-A0E2D42CDD07}"/>
+    <hyperlink ref="D6" r:id="rId20" display="5X High End" xr:uid="{EF9C54D9-37AD-4C5E-B005-857A5A0F0E0E}"/>
+    <hyperlink ref="D10" r:id="rId21" display="6x5x1 Option Shim" xr:uid="{949580A7-19FA-4649-8810-0D86754E89D0}"/>
+    <hyperlink ref="D14" r:id="rId22" xr:uid="{7E9D3A2C-C2E0-4E2C-8DBD-55F5FC458537}"/>
+    <hyperlink ref="D20" r:id="rId23" location="/4787-type-v_king_core_xy" display="6mm 210x210 mm" xr:uid="{5F418D3C-9E76-43F5-9055-4339D666308A}"/>
+    <hyperlink ref="D12" r:id="rId24" display="Cable Loom - Bowden Path" xr:uid="{69218DAD-E142-456F-9628-BEBE868DEB65}"/>
+    <hyperlink ref="D28" r:id="rId25" xr:uid="{07E428D0-A4C2-40A9-A449-D45DAAE2693B}"/>
+    <hyperlink ref="D29" r:id="rId26" xr:uid="{372D6460-8848-41C6-A442-111658CF6E3A}"/>
+    <hyperlink ref="D30" r:id="rId27" xr:uid="{A2789E00-3D11-4827-8310-3C44FB602031}"/>
+    <hyperlink ref="D13" r:id="rId28" display="5m - 10mm Sleeve" xr:uid="{34430D84-CB59-4A69-B6BD-ADDA018B10B1}"/>
+    <hyperlink ref="F10" r:id="rId29" display="NB! 200 pcs option is same price" xr:uid="{85332E1F-3AA7-480D-9FAD-326FED577B03}"/>
   </hyperlinks>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId30"/>
@@ -2505,28 +2556,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="44" t="s">
-        <v>101</v>
-      </c>
-      <c r="B1" s="45" t="s">
-        <v>32</v>
-      </c>
-      <c r="C1" s="46" t="s">
+      <c r="A1" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="B1" s="36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="53" t="s">
-        <v>126</v>
+      <c r="D1" s="44" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2" s="47" t="s">
-        <v>102</v>
-      </c>
-      <c r="B2" s="48">
+      <c r="A2" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="B2" s="39">
         <v>2</v>
       </c>
-      <c r="C2" s="49" t="s">
-        <v>103</v>
+      <c r="C2" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D2">
         <v>0.15</v>
@@ -2537,14 +2588,14 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3" s="50" t="s">
-        <v>104</v>
-      </c>
-      <c r="B3" s="51">
+      <c r="A3" s="41" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3" s="42">
         <v>2</v>
       </c>
-      <c r="C3" s="52" t="s">
-        <v>103</v>
+      <c r="C3" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D3">
         <v>0.15</v>
@@ -2555,14 +2606,14 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4" s="47" t="s">
-        <v>105</v>
-      </c>
-      <c r="B4" s="48">
+      <c r="A4" s="38" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="49" t="s">
-        <v>103</v>
+      <c r="C4" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D4">
         <v>0.15</v>
@@ -2573,14 +2624,14 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5" s="50" t="s">
-        <v>106</v>
-      </c>
-      <c r="B5" s="51">
+      <c r="A5" s="41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5" s="42">
         <v>2</v>
       </c>
-      <c r="C5" s="52" t="s">
-        <v>103</v>
+      <c r="C5" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D5">
         <v>0.15</v>
@@ -2591,14 +2642,14 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="48">
+      <c r="B6" s="39">
         <v>14</v>
       </c>
-      <c r="C6" s="49" t="s">
-        <v>103</v>
+      <c r="C6" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D6">
         <v>0.15</v>
@@ -2609,14 +2660,14 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7" s="50" t="s">
+      <c r="A7" s="41" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="51">
+      <c r="B7" s="42">
         <v>14</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>103</v>
+      <c r="C7" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D7">
         <v>0.15</v>
@@ -2627,14 +2678,14 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8" s="47" t="s">
-        <v>107</v>
-      </c>
-      <c r="B8" s="48">
+      <c r="A8" s="38" t="s">
+        <v>104</v>
+      </c>
+      <c r="B8" s="39">
         <v>10</v>
       </c>
-      <c r="C8" s="49" t="s">
-        <v>103</v>
+      <c r="C8" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D8">
         <v>0.15</v>
@@ -2645,14 +2696,14 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9" s="50" t="s">
-        <v>108</v>
-      </c>
-      <c r="B9" s="51">
+      <c r="A9" s="41" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9" s="42">
         <v>4</v>
       </c>
-      <c r="C9" s="52" t="s">
-        <v>103</v>
+      <c r="C9" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D9">
         <v>0.15</v>
@@ -2663,14 +2714,14 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10" s="47" t="s">
-        <v>109</v>
-      </c>
-      <c r="B10" s="48">
+      <c r="A10" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="B10" s="39">
         <v>6</v>
       </c>
-      <c r="C10" s="49" t="s">
-        <v>103</v>
+      <c r="C10" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D10">
         <v>0.15</v>
@@ -2681,14 +2732,14 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11" s="50" t="s">
-        <v>110</v>
-      </c>
-      <c r="B11" s="51">
+      <c r="A11" s="41" t="s">
+        <v>107</v>
+      </c>
+      <c r="B11" s="42">
         <v>4</v>
       </c>
-      <c r="C11" s="52" t="s">
-        <v>103</v>
+      <c r="C11" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D11">
         <v>0.15</v>
@@ -2699,14 +2750,14 @@
       </c>
     </row>
     <row r="12" spans="1:5">
-      <c r="A12" s="47" t="s">
-        <v>111</v>
-      </c>
-      <c r="B12" s="48">
+      <c r="A12" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="B12" s="39">
         <v>4</v>
       </c>
-      <c r="C12" s="49" t="s">
-        <v>103</v>
+      <c r="C12" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D12">
         <v>0.15</v>
@@ -2717,14 +2768,14 @@
       </c>
     </row>
     <row r="13" spans="1:5">
-      <c r="A13" s="50" t="s">
+      <c r="A13" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="51">
+      <c r="B13" s="42">
         <v>4</v>
       </c>
-      <c r="C13" s="52" t="s">
-        <v>103</v>
+      <c r="C13" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D13">
         <v>0.15</v>
@@ -2735,14 +2786,14 @@
       </c>
     </row>
     <row r="14" spans="1:5">
-      <c r="A14" s="47" t="s">
-        <v>112</v>
-      </c>
-      <c r="B14" s="48">
+      <c r="A14" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B14" s="39">
         <v>2</v>
       </c>
-      <c r="C14" s="49" t="s">
-        <v>103</v>
+      <c r="C14" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D14">
         <v>0.15</v>
@@ -2753,14 +2804,14 @@
       </c>
     </row>
     <row r="15" spans="1:5">
-      <c r="A15" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B15" s="51">
+      <c r="A15" s="41" t="s">
+        <v>110</v>
+      </c>
+      <c r="B15" s="42">
         <v>4</v>
       </c>
-      <c r="C15" s="52" t="s">
-        <v>103</v>
+      <c r="C15" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D15">
         <v>0.15</v>
@@ -2771,13 +2822,13 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="47" t="s">
-        <v>114</v>
-      </c>
-      <c r="B16" s="48">
+      <c r="A16" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B16" s="39">
         <v>16</v>
       </c>
-      <c r="C16" s="49">
+      <c r="C16" s="40">
         <v>25</v>
       </c>
       <c r="D16">
@@ -2789,13 +2840,13 @@
       </c>
     </row>
     <row r="17" spans="1:5">
-      <c r="A17" s="50" t="s">
-        <v>115</v>
-      </c>
-      <c r="B17" s="51">
+      <c r="A17" s="41" t="s">
+        <v>112</v>
+      </c>
+      <c r="B17" s="42">
         <v>23</v>
       </c>
-      <c r="C17" s="52">
+      <c r="C17" s="43">
         <v>25</v>
       </c>
       <c r="D17">
@@ -2807,13 +2858,13 @@
       </c>
     </row>
     <row r="18" spans="1:5">
-      <c r="A18" s="47" t="s">
-        <v>116</v>
-      </c>
-      <c r="B18" s="48">
+      <c r="A18" s="38" t="s">
+        <v>113</v>
+      </c>
+      <c r="B18" s="39">
         <v>19</v>
       </c>
-      <c r="C18" s="49">
+      <c r="C18" s="40">
         <v>25</v>
       </c>
       <c r="D18">
@@ -2825,13 +2876,13 @@
       </c>
     </row>
     <row r="19" spans="1:5">
-      <c r="A19" s="50" t="s">
-        <v>117</v>
-      </c>
-      <c r="B19" s="51">
+      <c r="A19" s="41" t="s">
+        <v>114</v>
+      </c>
+      <c r="B19" s="42">
         <v>110</v>
       </c>
-      <c r="C19" s="52"/>
+      <c r="C19" s="43"/>
       <c r="D19">
         <v>0.15</v>
       </c>
@@ -2841,13 +2892,13 @@
       </c>
     </row>
     <row r="20" spans="1:5">
-      <c r="A20" s="47" t="s">
+      <c r="A20" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="39">
         <v>166</v>
       </c>
-      <c r="C20" s="49">
+      <c r="C20" s="40">
         <v>175</v>
       </c>
       <c r="D20">
@@ -2859,14 +2910,14 @@
       </c>
     </row>
     <row r="21" spans="1:5">
-      <c r="A21" s="50" t="s">
-        <v>118</v>
-      </c>
-      <c r="B21" s="51">
+      <c r="A21" s="41" t="s">
+        <v>115</v>
+      </c>
+      <c r="B21" s="42">
         <v>24</v>
       </c>
-      <c r="C21" s="52" t="s">
-        <v>103</v>
+      <c r="C21" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D21">
         <v>0.15</v>
@@ -2877,13 +2928,13 @@
       </c>
     </row>
     <row r="22" spans="1:5">
-      <c r="A22" s="47" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="48">
+      <c r="A22" s="38" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" s="39">
         <v>142</v>
       </c>
-      <c r="C22" s="49">
+      <c r="C22" s="40">
         <v>150</v>
       </c>
       <c r="D22">
@@ -2895,14 +2946,14 @@
       </c>
     </row>
     <row r="23" spans="1:5">
-      <c r="A23" s="50" t="s">
+      <c r="A23" s="41" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="51">
+      <c r="B23" s="42">
         <v>9</v>
       </c>
-      <c r="C23" s="52" t="s">
-        <v>103</v>
+      <c r="C23" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D23">
         <v>0.15</v>
@@ -2913,14 +2964,14 @@
       </c>
     </row>
     <row r="24" spans="1:5">
-      <c r="A24" s="47" t="s">
-        <v>120</v>
-      </c>
-      <c r="B24" s="48">
+      <c r="A24" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="B24" s="39">
         <v>13</v>
       </c>
-      <c r="C24" s="49" t="s">
-        <v>103</v>
+      <c r="C24" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D24">
         <v>0.15</v>
@@ -2931,14 +2982,14 @@
       </c>
     </row>
     <row r="25" spans="1:5">
-      <c r="A25" s="50" t="s">
-        <v>121</v>
-      </c>
-      <c r="B25" s="51">
+      <c r="A25" s="41" t="s">
+        <v>118</v>
+      </c>
+      <c r="B25" s="42">
         <v>12</v>
       </c>
-      <c r="C25" s="52" t="s">
-        <v>103</v>
+      <c r="C25" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D25">
         <v>0.15</v>
@@ -2949,14 +3000,14 @@
       </c>
     </row>
     <row r="26" spans="1:5">
-      <c r="A26" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="B26" s="48">
+      <c r="A26" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="B26" s="39">
         <v>2</v>
       </c>
-      <c r="C26" s="49" t="s">
-        <v>103</v>
+      <c r="C26" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D26">
         <v>0.15</v>
@@ -2967,14 +3018,14 @@
       </c>
     </row>
     <row r="27" spans="1:5">
-      <c r="A27" s="50" t="s">
-        <v>123</v>
-      </c>
-      <c r="B27" s="51">
+      <c r="A27" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="B27" s="42">
         <v>4</v>
       </c>
-      <c r="C27" s="52" t="s">
-        <v>103</v>
+      <c r="C27" s="43" t="s">
+        <v>100</v>
       </c>
       <c r="D27">
         <v>0.15</v>
@@ -2985,14 +3036,14 @@
       </c>
     </row>
     <row r="28" spans="1:5">
-      <c r="A28" s="47" t="s">
-        <v>124</v>
-      </c>
-      <c r="B28" s="48">
+      <c r="A28" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="B28" s="39">
         <v>2</v>
       </c>
-      <c r="C28" s="49" t="s">
-        <v>103</v>
+      <c r="C28" s="40" t="s">
+        <v>100</v>
       </c>
       <c r="D28">
         <v>0.15</v>
@@ -3003,13 +3054,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" thickBot="1">
-      <c r="A29" s="50" t="s">
-        <v>125</v>
-      </c>
-      <c r="B29" s="51">
+      <c r="A29" s="41" t="s">
+        <v>122</v>
+      </c>
+      <c r="B29" s="42">
         <v>73</v>
       </c>
-      <c r="C29" s="52">
+      <c r="C29" s="43">
         <v>80</v>
       </c>
       <c r="D29">
@@ -3021,10 +3072,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15" thickBot="1">
-      <c r="A30" s="54" t="s">
-        <v>127</v>
-      </c>
-      <c r="E30" s="29">
+      <c r="A30" s="45" t="s">
+        <v>124</v>
+      </c>
+      <c r="E30" s="22">
         <f>SUM(E2:E29)</f>
         <v>103.34999999999998</v>
       </c>
@@ -3047,15 +3098,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C2">
         <v>40</v>

--- a/Document Library/Bill Of Materials/V-King CoreXY V2 - Part Order List.xlsx
+++ b/Document Library/Bill Of Materials/V-King CoreXY V2 - Part Order List.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-King CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="632" documentId="6_{B6BB48D1-6332-477D-B7B9-3E9DE76C918E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{839B0EB5-D140-49FE-A8FE-0D49C5DA7EC7}"/>
+  <xr:revisionPtr revIDLastSave="634" documentId="6_{B6BB48D1-6332-477D-B7B9-3E9DE76C918E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C4C6CD43-ABC7-4FBE-A4E1-048DF3FED81E}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -883,15 +883,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="167" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="10" xfId="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="166" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="4" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="49" fontId="6" fillId="4" borderId="7" xfId="3" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -925,6 +916,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1753,7 +1753,7 @@
   <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1763,44 +1763,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="25">
-      <c r="A1" s="56" t="s">
+      <c r="A1" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" s="57" t="s">
+      <c r="A2" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10">
-      <c r="A3" s="58"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="58"/>
-      <c r="D3" s="58"/>
-      <c r="E3" s="58"/>
-      <c r="F3" s="58"/>
-      <c r="G3" s="58"/>
-      <c r="H3" s="58"/>
-      <c r="I3" s="58"/>
-      <c r="J3" s="58"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="3"/>
@@ -1890,7 +1890,7 @@
   <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -1906,33 +1906,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" s="69"/>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
-      <c r="F1" s="70"/>
-      <c r="G1" s="71"/>
+      <c r="A1" s="66"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="68"/>
     </row>
     <row r="2" spans="1:10" ht="27">
-      <c r="A2" s="64"/>
-      <c r="B2" s="72"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="73" t="s">
+      <c r="A2" s="61"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="62"/>
+      <c r="D2" s="70" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="66"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="68"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="65"/>
     </row>
     <row r="3" spans="1:10" ht="15" thickBot="1">
-      <c r="A3" s="74"/>
+      <c r="A3" s="71"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
       <c r="D3" s="11"/>
       <c r="E3" s="11"/>
       <c r="F3" s="11"/>
-      <c r="G3" s="75"/>
+      <c r="G3" s="72"/>
     </row>
     <row r="4" spans="1:10" ht="15" thickBot="1">
       <c r="A4" s="46" t="s">
@@ -1943,11 +1943,11 @@
       </c>
       <c r="C4" s="48"/>
       <c r="D4" s="48"/>
-      <c r="E4" s="59">
+      <c r="E4" s="56">
         <v>345</v>
       </c>
-      <c r="F4" s="62"/>
-      <c r="G4" s="63"/>
+      <c r="F4" s="59"/>
+      <c r="G4" s="60"/>
       <c r="H4" s="11"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
@@ -1968,10 +1968,10 @@
       <c r="E5" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="60" t="s">
+      <c r="F5" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="61" t="s">
+      <c r="G5" s="58" t="s">
         <v>33</v>
       </c>
     </row>
@@ -2546,7 +2546,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{407AFBB0-CFB7-4080-B7E4-F71BBADF622E}">
   <dimension ref="A1:E30"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -3082,6 +3084,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Document Library/Bill Of Materials/V-King CoreXY V2 - Part Order List.xlsx
+++ b/Document Library/Bill Of Materials/V-King CoreXY V2 - Part Order List.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-King CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="634" documentId="6_{B6BB48D1-6332-477D-B7B9-3E9DE76C918E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{C4C6CD43-ABC7-4FBE-A4E1-048DF3FED81E}"/>
+  <xr:revisionPtr revIDLastSave="635" documentId="6_{B6BB48D1-6332-477D-B7B9-3E9DE76C918E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CB9FB144-A490-4048-8751-D79585178DA0}"/>
   <bookViews>
-    <workbookView xWindow="820" yWindow="-110" windowWidth="18490" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Overview" sheetId="7" r:id="rId1"/>
@@ -458,7 +458,7 @@
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$USD]\ #,##0.00"/>
   </numFmts>
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1756,13 +1756,13 @@
       <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="48.26953125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="25">
+    <row r="1" spans="1:10" ht="27.75" x14ac:dyDescent="0.5">
       <c r="A1" s="73" t="s">
         <v>95</v>
       </c>
@@ -1776,7 +1776,7 @@
       <c r="I1" s="73"/>
       <c r="J1" s="73"/>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="74" t="s">
         <v>96</v>
       </c>
@@ -1790,7 +1790,7 @@
       <c r="I2" s="74"/>
       <c r="J2" s="74"/>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="75"/>
       <c r="B3" s="75"/>
       <c r="C3" s="75"/>
@@ -1802,14 +1802,14 @@
       <c r="I3" s="75"/>
       <c r="J3" s="75"/>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
       <c r="B4" s="9"/>
       <c r="C4" s="9"/>
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>125</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1827,7 +1827,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
@@ -1835,7 +1835,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
@@ -1843,11 +1843,11 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="8"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
@@ -1856,12 +1856,12 @@
         <v>917</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="28.5">
+    <row r="13" spans="1:10" ht="29.25" x14ac:dyDescent="0.6">
       <c r="A13" s="6" t="s">
         <v>9</v>
       </c>
@@ -1889,23 +1889,21 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="96" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.81640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.36328125" customWidth="1"/>
-    <col min="3" max="3" width="8.81640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.7265625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.453125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.7265625" customWidth="1"/>
-    <col min="8" max="8" width="7.81640625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="49.42578125" customWidth="1"/>
+    <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.7109375" customWidth="1"/>
+    <col min="8" max="8" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" s="66"/>
       <c r="B1" s="67"/>
       <c r="C1" s="67"/>
@@ -1914,7 +1912,7 @@
       <c r="F1" s="67"/>
       <c r="G1" s="68"/>
     </row>
-    <row r="2" spans="1:10" ht="27">
+    <row r="2" spans="1:10" ht="27.75" x14ac:dyDescent="0.5">
       <c r="A2" s="61"/>
       <c r="B2" s="69"/>
       <c r="C2" s="62"/>
@@ -1925,7 +1923,7 @@
       <c r="F2" s="64"/>
       <c r="G2" s="65"/>
     </row>
-    <row r="3" spans="1:10" ht="15" thickBot="1">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="71"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -1934,7 +1932,7 @@
       <c r="F3" s="11"/>
       <c r="G3" s="72"/>
     </row>
-    <row r="4" spans="1:10" ht="15" thickBot="1">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="46" t="s">
         <v>18</v>
       </c>
@@ -1952,7 +1950,7 @@
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="24" t="s">
         <v>17</v>
       </c>
@@ -1975,7 +1973,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
         <v>93</v>
       </c>
@@ -1994,7 +1992,7 @@
       <c r="F6" s="10"/>
       <c r="G6" s="15"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>94</v>
       </c>
@@ -2013,7 +2011,7 @@
       <c r="F7" s="10"/>
       <c r="G7" s="15"/>
     </row>
-    <row r="8" spans="1:10">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
         <v>92</v>
       </c>
@@ -2032,7 +2030,7 @@
       <c r="F8" s="13"/>
       <c r="G8" s="21"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>87</v>
       </c>
@@ -2051,7 +2049,7 @@
       <c r="F9" s="10"/>
       <c r="G9" s="15"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
         <v>64</v>
       </c>
@@ -2072,7 +2070,7 @@
       </c>
       <c r="G10" s="15"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>50</v>
       </c>
@@ -2091,7 +2089,7 @@
       <c r="F11" s="10"/>
       <c r="G11" s="15"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="28" t="s">
         <v>69</v>
       </c>
@@ -2110,7 +2108,7 @@
       <c r="F12" s="18"/>
       <c r="G12" s="15"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>80</v>
       </c>
@@ -2129,7 +2127,7 @@
       <c r="F13" s="18"/>
       <c r="G13" s="15"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="28" t="s">
         <v>34</v>
       </c>
@@ -2148,7 +2146,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="15"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="28" t="s">
         <v>86</v>
       </c>
@@ -2167,7 +2165,7 @@
       <c r="F15" s="10"/>
       <c r="G15" s="15"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>49</v>
       </c>
@@ -2186,7 +2184,7 @@
       <c r="F16" s="10"/>
       <c r="G16" s="15"/>
     </row>
-    <row r="17" spans="1:7">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="28" t="s">
         <v>81</v>
       </c>
@@ -2205,7 +2203,7 @@
       <c r="F17" s="10"/>
       <c r="G17" s="15"/>
     </row>
-    <row r="18" spans="1:7">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>82</v>
       </c>
@@ -2224,7 +2222,7 @@
       <c r="F18" s="10"/>
       <c r="G18" s="15"/>
     </row>
-    <row r="19" spans="1:7">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="28" t="s">
         <v>83</v>
       </c>
@@ -2243,7 +2241,7 @@
       <c r="F19" s="10"/>
       <c r="G19" s="15"/>
     </row>
-    <row r="20" spans="1:7">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>67</v>
       </c>
@@ -2262,7 +2260,7 @@
       <c r="F20" s="10"/>
       <c r="G20" s="15"/>
     </row>
-    <row r="21" spans="1:7">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="28" t="s">
         <v>84</v>
       </c>
@@ -2281,7 +2279,7 @@
       <c r="F21" s="10"/>
       <c r="G21" s="15"/>
     </row>
-    <row r="22" spans="1:7">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="28" t="s">
         <v>131</v>
       </c>
@@ -2300,7 +2298,7 @@
       <c r="F22" s="10"/>
       <c r="G22" s="15"/>
     </row>
-    <row r="23" spans="1:7">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>85</v>
       </c>
@@ -2319,7 +2317,7 @@
       <c r="F23" s="13"/>
       <c r="G23" s="15"/>
     </row>
-    <row r="24" spans="1:7">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="28" t="s">
         <v>56</v>
       </c>
@@ -2338,7 +2336,7 @@
       <c r="F24" s="13"/>
       <c r="G24" s="15"/>
     </row>
-    <row r="25" spans="1:7">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>53</v>
       </c>
@@ -2357,7 +2355,7 @@
       <c r="F25" s="13"/>
       <c r="G25" s="15"/>
     </row>
-    <row r="26" spans="1:7">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="28" t="s">
         <v>48</v>
       </c>
@@ -2376,7 +2374,7 @@
       <c r="F26" s="10"/>
       <c r="G26" s="15"/>
     </row>
-    <row r="27" spans="1:7">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>10</v>
       </c>
@@ -2395,7 +2393,7 @@
       <c r="F27" s="10"/>
       <c r="G27" s="15"/>
     </row>
-    <row r="28" spans="1:7">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>6</v>
       </c>
@@ -2418,7 +2416,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="29" spans="1:7">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="28" t="s">
         <v>12</v>
       </c>
@@ -2437,7 +2435,7 @@
       <c r="F29" s="14"/>
       <c r="G29" s="12"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>8</v>
       </c>
@@ -2456,7 +2454,7 @@
       <c r="F30" s="14"/>
       <c r="G30" s="12"/>
     </row>
-    <row r="31" spans="1:7" ht="15" thickBot="1">
+    <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="28" t="s">
         <v>42</v>
       </c>
@@ -2475,7 +2473,7 @@
       <c r="F31" s="19"/>
       <c r="G31" s="15"/>
     </row>
-    <row r="32" spans="1:7" ht="15" thickBot="1">
+    <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="49" t="s">
         <v>71</v>
       </c>
@@ -2489,7 +2487,7 @@
       <c r="F32" s="23"/>
       <c r="G32" s="20"/>
     </row>
-    <row r="33" spans="1:5" ht="15" thickBot="1">
+    <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="52" t="s">
         <v>127</v>
       </c>
@@ -2550,14 +2548,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.1796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.7265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>98</v>
       </c>
@@ -2571,7 +2569,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="38" t="s">
         <v>99</v>
       </c>
@@ -2589,7 +2587,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>101</v>
       </c>
@@ -2607,7 +2605,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="38" t="s">
         <v>102</v>
       </c>
@@ -2625,7 +2623,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>103</v>
       </c>
@@ -2643,7 +2641,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="38" t="s">
         <v>3</v>
       </c>
@@ -2661,7 +2659,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="41" t="s">
         <v>2</v>
       </c>
@@ -2679,7 +2677,7 @@
         <v>2.1</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="38" t="s">
         <v>104</v>
       </c>
@@ -2697,7 +2695,7 @@
         <v>1.5</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>105</v>
       </c>
@@ -2715,7 +2713,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="38" t="s">
         <v>106</v>
       </c>
@@ -2733,7 +2731,7 @@
         <v>0.89999999999999991</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="41" t="s">
         <v>107</v>
       </c>
@@ -2751,7 +2749,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="38" t="s">
         <v>108</v>
       </c>
@@ -2769,7 +2767,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="41" t="s">
         <v>4</v>
       </c>
@@ -2787,7 +2785,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="38" t="s">
         <v>109</v>
       </c>
@@ -2805,7 +2803,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>110</v>
       </c>
@@ -2823,7 +2821,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="38" t="s">
         <v>111</v>
       </c>
@@ -2841,7 +2839,7 @@
         <v>2.4</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="41" t="s">
         <v>112</v>
       </c>
@@ -2859,7 +2857,7 @@
         <v>3.4499999999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="38" t="s">
         <v>113</v>
       </c>
@@ -2877,7 +2875,7 @@
         <v>2.85</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="41" t="s">
         <v>114</v>
       </c>
@@ -2893,7 +2891,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="38" t="s">
         <v>1</v>
       </c>
@@ -2911,7 +2909,7 @@
         <v>24.9</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="41" t="s">
         <v>115</v>
       </c>
@@ -2929,7 +2927,7 @@
         <v>3.5999999999999996</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="38" t="s">
         <v>116</v>
       </c>
@@ -2947,7 +2945,7 @@
         <v>21.3</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="41" t="s">
         <v>5</v>
       </c>
@@ -2965,7 +2963,7 @@
         <v>1.3499999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="38" t="s">
         <v>117</v>
       </c>
@@ -2983,7 +2981,7 @@
         <v>1.95</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="41" t="s">
         <v>118</v>
       </c>
@@ -3001,7 +2999,7 @@
         <v>1.7999999999999998</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="38" t="s">
         <v>119</v>
       </c>
@@ -3019,7 +3017,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="41" t="s">
         <v>120</v>
       </c>
@@ -3037,7 +3035,7 @@
         <v>0.6</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="38" t="s">
         <v>121</v>
       </c>
@@ -3055,7 +3053,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="15" thickBot="1">
+    <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41" t="s">
         <v>122</v>
       </c>
@@ -3073,7 +3071,7 @@
         <v>10.95</v>
       </c>
     </row>
-    <row r="30" spans="1:5" ht="15" thickBot="1">
+    <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>124</v>
       </c>
@@ -3094,17 +3092,17 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>23</v>
       </c>

--- a/Document Library/Bill Of Materials/V-King CoreXY V2 - Part Order List.xlsx
+++ b/Document Library/Bill Of Materials/V-King CoreXY V2 - Part Order List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-King CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="635" documentId="6_{B6BB48D1-6332-477D-B7B9-3E9DE76C918E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{CB9FB144-A490-4048-8751-D79585178DA0}"/>
+  <xr:revisionPtr revIDLastSave="644" documentId="6_{B6BB48D1-6332-477D-B7B9-3E9DE76C918E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A95AEACC-FAF3-4FC8-A77B-AF747E439616}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Overview" sheetId="7" r:id="rId1"/>
@@ -452,11 +452,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_([$EUR]\ * #,##0_);_([$EUR]\ * \(#,##0\);_([$EUR]\ * &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="[$USD]\ #,##0.0"/>
     <numFmt numFmtId="166" formatCode="[$$-409]#,##0.00"/>
     <numFmt numFmtId="167" formatCode="[$USD]\ #,##0.00"/>
+    <numFmt numFmtId="168" formatCode="_-[$USD]\ * #,##0_-;\-[$USD]\ * #,##0_-;_-[$USD]\ * &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
     <font>
@@ -826,8 +827,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -925,6 +924,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1752,86 +1753,86 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252991A0-F9B1-4FB6-901D-4CCB3A2906EB}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="48.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="73" t="s">
+      <c r="A1" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="73"/>
-      <c r="C1" s="73"/>
-      <c r="D1" s="73"/>
-      <c r="E1" s="73"/>
-      <c r="F1" s="73"/>
-      <c r="G1" s="73"/>
-      <c r="H1" s="73"/>
-      <c r="I1" s="73"/>
-      <c r="J1" s="73"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
+      <c r="D1" s="71"/>
+      <c r="E1" s="71"/>
+      <c r="F1" s="71"/>
+      <c r="G1" s="71"/>
+      <c r="H1" s="71"/>
+      <c r="I1" s="71"/>
+      <c r="J1" s="71"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="72" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="74"/>
-      <c r="C2" s="74"/>
-      <c r="D2" s="74"/>
-      <c r="E2" s="74"/>
-      <c r="F2" s="74"/>
-      <c r="G2" s="74"/>
-      <c r="H2" s="74"/>
-      <c r="I2" s="74"/>
-      <c r="J2" s="74"/>
+      <c r="B2" s="72"/>
+      <c r="C2" s="72"/>
+      <c r="D2" s="72"/>
+      <c r="E2" s="72"/>
+      <c r="F2" s="72"/>
+      <c r="G2" s="72"/>
+      <c r="H2" s="72"/>
+      <c r="I2" s="72"/>
+      <c r="J2" s="72"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="75"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="75"/>
-      <c r="D3" s="75"/>
-      <c r="E3" s="75"/>
-      <c r="F3" s="75"/>
-      <c r="G3" s="75"/>
-      <c r="H3" s="75"/>
-      <c r="I3" s="75"/>
-      <c r="J3" s="75"/>
+      <c r="A3" s="73"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+      <c r="E3" s="73"/>
+      <c r="F3" s="73"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="73"/>
+      <c r="I3" s="73"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="74">
         <f>'Complete Part List'!E4</f>
-        <v>345</v>
+        <v>395</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="74">
         <f>'Complete Part List'!E32</f>
-        <v>522</v>
+        <v>531</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="74">
         <v>50</v>
       </c>
     </row>
@@ -1839,21 +1840,21 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="8">
+      <c r="B8" s="74">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="8"/>
+      <c r="B9" s="74"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="7">
+      <c r="B10" s="75">
         <f>SUM(B5:B8)</f>
-        <v>917</v>
+        <v>976</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1889,7 +1890,9 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="96" workbookViewId="0"/>
+    <sheetView zoomScale="86" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1897,606 +1900,606 @@
     <col min="2" max="2" width="49.42578125" customWidth="1"/>
     <col min="3" max="3" width="8.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="13.7109375" customWidth="1"/>
     <col min="8" max="8" width="7.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="66"/>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="68"/>
+      <c r="A1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="66"/>
     </row>
     <row r="2" spans="1:10" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A2" s="61"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="62"/>
-      <c r="D2" s="70" t="s">
+      <c r="A2" s="59"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="68" t="s">
         <v>134</v>
       </c>
-      <c r="E2" s="63"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="65"/>
+      <c r="E2" s="61"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="63"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="71"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="72"/>
+      <c r="A3" s="69"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="70"/>
     </row>
     <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="46" t="s">
+      <c r="A4" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="56">
-        <v>345</v>
-      </c>
-      <c r="F4" s="59"/>
-      <c r="G4" s="60"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="54">
+        <v>395</v>
+      </c>
+      <c r="F4" s="57"/>
+      <c r="G4" s="58"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="22" t="s">
         <v>17</v>
       </c>
-      <c r="B5" s="25" t="s">
+      <c r="B5" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D5" s="27" t="s">
+      <c r="D5" s="25" t="s">
         <v>73</v>
       </c>
-      <c r="E5" s="34" t="s">
+      <c r="E5" s="32" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="G5" s="58" t="s">
+      <c r="G5" s="56" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="26" t="s">
         <v>93</v>
       </c>
-      <c r="B6" s="29" t="s">
+      <c r="B6" s="27" t="s">
         <v>62</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C6" s="28">
         <v>6</v>
       </c>
-      <c r="D6" s="33" t="s">
+      <c r="D6" s="31" t="s">
         <v>63</v>
       </c>
-      <c r="E6" s="32">
+      <c r="E6" s="30">
         <v>22</v>
       </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="15"/>
+      <c r="F6" s="8"/>
+      <c r="G6" s="13"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="12" t="s">
         <v>94</v>
       </c>
       <c r="B7" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="16">
+      <c r="C7" s="14">
         <v>8</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E7" s="31">
+      <c r="E7" s="29">
         <v>25</v>
       </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="15"/>
+      <c r="F7" s="8"/>
+      <c r="G7" s="13"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="26" t="s">
         <v>92</v>
       </c>
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="27" t="s">
         <v>59</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C8" s="28">
         <v>4</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D8" s="31" t="s">
         <v>91</v>
       </c>
-      <c r="E8" s="32">
+      <c r="E8" s="30">
         <v>13</v>
       </c>
-      <c r="F8" s="13"/>
-      <c r="G8" s="21"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="19"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="12" t="s">
         <v>87</v>
       </c>
       <c r="B9" t="s">
         <v>89</v>
       </c>
-      <c r="C9" s="16">
+      <c r="C9" s="14">
         <v>10</v>
       </c>
-      <c r="D9" s="17" t="s">
+      <c r="D9" s="15" t="s">
         <v>90</v>
       </c>
-      <c r="E9" s="31">
+      <c r="E9" s="29">
         <v>30</v>
       </c>
-      <c r="F9" s="10"/>
-      <c r="G9" s="15"/>
+      <c r="F9" s="8"/>
+      <c r="G9" s="13"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C10" s="30">
+      <c r="C10" s="28">
         <v>80</v>
       </c>
-      <c r="D10" s="33" t="s">
+      <c r="D10" s="31" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="32">
+      <c r="E10" s="30">
         <v>20</v>
       </c>
-      <c r="F10" s="10" t="s">
+      <c r="F10" s="8" t="s">
         <v>65</v>
       </c>
-      <c r="G10" s="15"/>
+      <c r="G10" s="13"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="12" t="s">
         <v>50</v>
       </c>
       <c r="B11" t="s">
         <v>51</v>
       </c>
-      <c r="C11" s="16">
+      <c r="C11" s="14">
         <v>1</v>
       </c>
-      <c r="D11" s="17" t="s">
+      <c r="D11" s="15" t="s">
         <v>52</v>
       </c>
-      <c r="E11" s="31">
+      <c r="E11" s="29">
         <v>2.5</v>
       </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="15"/>
+      <c r="F11" s="8"/>
+      <c r="G11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="26" t="s">
         <v>69</v>
       </c>
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="C12" s="30">
+      <c r="C12" s="28">
         <v>1</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D12" s="31" t="s">
         <v>30</v>
       </c>
-      <c r="E12" s="32">
+      <c r="E12" s="30">
         <v>2.5</v>
       </c>
-      <c r="F12" s="18"/>
-      <c r="G12" s="15"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="12" t="s">
         <v>80</v>
       </c>
       <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="16">
+      <c r="C13" s="14">
         <v>1</v>
       </c>
-      <c r="D13" s="17" t="s">
+      <c r="D13" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="31">
+      <c r="E13" s="29">
         <v>3</v>
       </c>
-      <c r="F13" s="18"/>
-      <c r="G13" s="15"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C14" s="28">
         <v>1</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D14" s="31" t="s">
         <v>126</v>
       </c>
-      <c r="E14" s="32">
+      <c r="E14" s="30">
         <v>60</v>
       </c>
-      <c r="F14" s="18"/>
-      <c r="G14" s="15"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="26" t="s">
         <v>86</v>
       </c>
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C15" s="28">
         <v>3</v>
       </c>
-      <c r="D15" s="33" t="s">
+      <c r="D15" s="31" t="s">
         <v>130</v>
       </c>
-      <c r="E15" s="32">
+      <c r="E15" s="30">
         <v>4</v>
       </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="15"/>
+      <c r="F15" s="8"/>
+      <c r="G15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14" t="s">
+      <c r="A16" s="12" t="s">
         <v>49</v>
       </c>
       <c r="B16" t="s">
         <v>128</v>
       </c>
-      <c r="C16" s="16">
+      <c r="C16" s="14">
         <v>1</v>
       </c>
-      <c r="D16" s="17" t="s">
+      <c r="D16" s="15" t="s">
         <v>129</v>
       </c>
-      <c r="E16" s="31">
+      <c r="E16" s="29">
         <v>31</v>
       </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="15"/>
+      <c r="F16" s="8"/>
+      <c r="G16" s="13"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="26" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B17" s="27" t="s">
         <v>39</v>
       </c>
-      <c r="C17" s="30">
+      <c r="C17" s="28">
         <v>1</v>
       </c>
-      <c r="D17" s="33" t="s">
+      <c r="D17" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="E17" s="32">
+      <c r="E17" s="30">
         <v>3</v>
       </c>
-      <c r="F17" s="10"/>
-      <c r="G17" s="15"/>
+      <c r="F17" s="8"/>
+      <c r="G17" s="13"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="12" t="s">
         <v>82</v>
       </c>
       <c r="B18" t="s">
         <v>37</v>
       </c>
-      <c r="C18" s="16">
+      <c r="C18" s="14">
         <v>1</v>
       </c>
-      <c r="D18" s="17" t="s">
+      <c r="D18" s="15" t="s">
         <v>38</v>
       </c>
-      <c r="E18" s="31">
+      <c r="E18" s="29">
         <v>2</v>
       </c>
-      <c r="F18" s="10"/>
-      <c r="G18" s="15"/>
+      <c r="F18" s="8"/>
+      <c r="G18" s="13"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="26" t="s">
         <v>83</v>
       </c>
-      <c r="B19" s="29" t="s">
+      <c r="B19" s="27" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="30">
+      <c r="C19" s="28">
         <v>2</v>
       </c>
-      <c r="D19" s="33" t="s">
+      <c r="D19" s="31" t="s">
         <v>36</v>
       </c>
-      <c r="E19" s="32">
+      <c r="E19" s="30">
         <v>10</v>
       </c>
-      <c r="F19" s="10"/>
-      <c r="G19" s="15"/>
+      <c r="F19" s="8"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="14" t="s">
+      <c r="A20" s="12" t="s">
         <v>67</v>
       </c>
       <c r="B20" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="16">
+      <c r="C20" s="14">
         <v>1</v>
       </c>
-      <c r="D20" s="17" t="s">
+      <c r="D20" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="E20" s="31">
-        <v>89</v>
-      </c>
-      <c r="F20" s="10"/>
-      <c r="G20" s="15"/>
+      <c r="E20" s="29">
+        <v>98</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="13"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="28" t="s">
+      <c r="A21" s="26" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="29" t="s">
+      <c r="B21" s="27" t="s">
         <v>74</v>
       </c>
-      <c r="C21" s="30">
+      <c r="C21" s="28">
         <v>1</v>
       </c>
-      <c r="D21" s="33" t="s">
+      <c r="D21" s="31" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="32">
+      <c r="E21" s="30">
         <v>16</v>
       </c>
-      <c r="F21" s="10"/>
-      <c r="G21" s="15"/>
+      <c r="F21" s="8"/>
+      <c r="G21" s="13"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="27" t="s">
         <v>132</v>
       </c>
-      <c r="C22" s="30">
+      <c r="C22" s="28">
         <v>1</v>
       </c>
-      <c r="D22" s="55" t="s">
+      <c r="D22" s="53" t="s">
         <v>133</v>
       </c>
-      <c r="E22" s="32">
+      <c r="E22" s="30">
         <v>73</v>
       </c>
-      <c r="F22" s="10"/>
-      <c r="G22" s="15"/>
+      <c r="F22" s="8"/>
+      <c r="G22" s="13"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="12" t="s">
         <v>85</v>
       </c>
       <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="C23" s="16" t="s">
+      <c r="C23" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="10" t="s">
+      <c r="D23" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="E23" s="31">
+      <c r="E23" s="29">
         <v>30</v>
       </c>
-      <c r="F23" s="13"/>
-      <c r="G23" s="15"/>
+      <c r="F23" s="11"/>
+      <c r="G23" s="13"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="28" t="s">
+      <c r="A24" s="26" t="s">
         <v>56</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C24" s="28">
         <v>1</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D24" s="53" t="s">
         <v>58</v>
       </c>
-      <c r="E24" s="32">
+      <c r="E24" s="30">
         <v>8.5</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="15"/>
+      <c r="F24" s="11"/>
+      <c r="G24" s="13"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="12" t="s">
         <v>53</v>
       </c>
       <c r="B25" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="16">
+      <c r="C25" s="14">
         <v>1</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="31">
+      <c r="E25" s="29">
         <v>20</v>
       </c>
-      <c r="F25" s="13"/>
-      <c r="G25" s="15"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="13"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="26" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="30">
+      <c r="C26" s="28">
         <v>1</v>
       </c>
-      <c r="D26" s="55" t="s">
+      <c r="D26" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="E26" s="32">
+      <c r="E26" s="30">
         <v>2</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="15"/>
+      <c r="F26" s="8"/>
+      <c r="G26" s="13"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="14" t="s">
+      <c r="A27" s="12" t="s">
         <v>10</v>
       </c>
       <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="C27" s="16">
+      <c r="C27" s="14">
         <v>1</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E27" s="31">
+      <c r="E27" s="29">
         <v>3.5</v>
       </c>
-      <c r="F27" s="10"/>
-      <c r="G27" s="15"/>
+      <c r="F27" s="8"/>
+      <c r="G27" s="13"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="12" t="s">
         <v>6</v>
       </c>
       <c r="B28" t="s">
         <v>7</v>
       </c>
-      <c r="C28" s="16">
+      <c r="C28" s="14">
         <v>1</v>
       </c>
-      <c r="D28" s="17" t="s">
+      <c r="D28" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E28" s="31">
+      <c r="E28" s="29">
         <v>16</v>
       </c>
-      <c r="F28" s="10" t="s">
+      <c r="F28" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="G28" s="15">
+      <c r="G28" s="13">
         <v>51</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="28" t="s">
+      <c r="A29" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="C29" s="30">
+      <c r="C29" s="28">
         <v>10</v>
       </c>
-      <c r="D29" s="33" t="s">
+      <c r="D29" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="32">
+      <c r="E29" s="30">
         <v>4</v>
       </c>
-      <c r="F29" s="14"/>
-      <c r="G29" s="12"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="10"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="14" t="s">
+      <c r="A30" s="12" t="s">
         <v>8</v>
       </c>
       <c r="B30" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="16">
+      <c r="C30" s="14">
         <v>1</v>
       </c>
-      <c r="D30" s="17" t="s">
+      <c r="D30" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="E30" s="31">
+      <c r="E30" s="29">
         <v>20</v>
       </c>
-      <c r="F30" s="14"/>
-      <c r="G30" s="12"/>
+      <c r="F30" s="12"/>
+      <c r="G30" s="10"/>
     </row>
     <row r="31" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="27" t="s">
         <v>43</v>
       </c>
-      <c r="C31" s="30">
+      <c r="C31" s="28">
         <v>1</v>
       </c>
-      <c r="D31" s="33" t="s">
+      <c r="D31" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="E31" s="32">
+      <c r="E31" s="30">
         <v>12</v>
       </c>
-      <c r="F31" s="19"/>
-      <c r="G31" s="15"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="13"/>
     </row>
     <row r="32" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="49" t="s">
+      <c r="A32" s="47" t="s">
         <v>71</v>
       </c>
-      <c r="B32" s="50"/>
-      <c r="C32" s="50"/>
-      <c r="D32" s="50"/>
-      <c r="E32" s="51">
+      <c r="B32" s="48"/>
+      <c r="C32" s="48"/>
+      <c r="D32" s="48"/>
+      <c r="E32" s="49">
         <f>SUM(E6:E31)</f>
-        <v>522</v>
-      </c>
-      <c r="F32" s="23"/>
-      <c r="G32" s="20"/>
+        <v>531</v>
+      </c>
+      <c r="F32" s="21"/>
+      <c r="G32" s="18"/>
     </row>
     <row r="33" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="52" t="s">
+      <c r="A33" s="50" t="s">
         <v>127</v>
       </c>
-      <c r="B33" s="53"/>
-      <c r="C33" s="53"/>
-      <c r="D33" s="53"/>
-      <c r="E33" s="54">
+      <c r="B33" s="51"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="52">
         <f>E4+E32</f>
-        <v>867</v>
+        <v>926</v>
       </c>
     </row>
   </sheetData>
@@ -2545,7 +2548,7 @@
   <dimension ref="A1:E30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2556,27 +2559,27 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+      <c r="A1" s="33" t="s">
         <v>98</v>
       </c>
-      <c r="B1" s="36" t="s">
+      <c r="B1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="35" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="44" t="s">
+      <c r="D1" s="42" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="36" t="s">
         <v>99</v>
       </c>
-      <c r="B2" s="39">
+      <c r="B2" s="37">
         <v>2</v>
       </c>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D2">
@@ -2588,13 +2591,13 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="39" t="s">
         <v>101</v>
       </c>
-      <c r="B3" s="42">
+      <c r="B3" s="40">
         <v>2</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D3">
@@ -2606,13 +2609,13 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+      <c r="A4" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="B4" s="39">
+      <c r="B4" s="37">
         <v>2</v>
       </c>
-      <c r="C4" s="40" t="s">
+      <c r="C4" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D4">
@@ -2624,13 +2627,13 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="41" t="s">
+      <c r="A5" s="39" t="s">
         <v>103</v>
       </c>
-      <c r="B5" s="42">
+      <c r="B5" s="40">
         <v>2</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D5">
@@ -2642,13 +2645,13 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="38" t="s">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39">
+      <c r="B6" s="37">
         <v>14</v>
       </c>
-      <c r="C6" s="40" t="s">
+      <c r="C6" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D6">
@@ -2660,13 +2663,13 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="41" t="s">
+      <c r="A7" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="42">
+      <c r="B7" s="40">
         <v>14</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D7">
@@ -2678,13 +2681,13 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="38" t="s">
+      <c r="A8" s="36" t="s">
         <v>104</v>
       </c>
-      <c r="B8" s="39">
+      <c r="B8" s="37">
         <v>10</v>
       </c>
-      <c r="C8" s="40" t="s">
+      <c r="C8" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D8">
@@ -2696,13 +2699,13 @@
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="41" t="s">
+      <c r="A9" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="B9" s="42">
+      <c r="B9" s="40">
         <v>4</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D9">
@@ -2714,13 +2717,13 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="38" t="s">
+      <c r="A10" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="B10" s="39">
+      <c r="B10" s="37">
         <v>6</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D10">
@@ -2732,13 +2735,13 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="41" t="s">
+      <c r="A11" s="39" t="s">
         <v>107</v>
       </c>
-      <c r="B11" s="42">
+      <c r="B11" s="40">
         <v>4</v>
       </c>
-      <c r="C11" s="43" t="s">
+      <c r="C11" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D11">
@@ -2750,13 +2753,13 @@
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="38" t="s">
+      <c r="A12" s="36" t="s">
         <v>108</v>
       </c>
-      <c r="B12" s="39">
+      <c r="B12" s="37">
         <v>4</v>
       </c>
-      <c r="C12" s="40" t="s">
+      <c r="C12" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D12">
@@ -2768,13 +2771,13 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="41" t="s">
+      <c r="A13" s="39" t="s">
         <v>4</v>
       </c>
-      <c r="B13" s="42">
+      <c r="B13" s="40">
         <v>4</v>
       </c>
-      <c r="C13" s="43" t="s">
+      <c r="C13" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D13">
@@ -2786,13 +2789,13 @@
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="38" t="s">
+      <c r="A14" s="36" t="s">
         <v>109</v>
       </c>
-      <c r="B14" s="39">
+      <c r="B14" s="37">
         <v>2</v>
       </c>
-      <c r="C14" s="40" t="s">
+      <c r="C14" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D14">
@@ -2804,13 +2807,13 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="41" t="s">
+      <c r="A15" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="42">
+      <c r="B15" s="40">
         <v>4</v>
       </c>
-      <c r="C15" s="43" t="s">
+      <c r="C15" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D15">
@@ -2822,13 +2825,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="36" t="s">
         <v>111</v>
       </c>
-      <c r="B16" s="39">
+      <c r="B16" s="37">
         <v>16</v>
       </c>
-      <c r="C16" s="40">
+      <c r="C16" s="38">
         <v>25</v>
       </c>
       <c r="D16">
@@ -2840,13 +2843,13 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="41" t="s">
+      <c r="A17" s="39" t="s">
         <v>112</v>
       </c>
-      <c r="B17" s="42">
+      <c r="B17" s="40">
         <v>23</v>
       </c>
-      <c r="C17" s="43">
+      <c r="C17" s="41">
         <v>25</v>
       </c>
       <c r="D17">
@@ -2858,13 +2861,13 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="38" t="s">
+      <c r="A18" s="36" t="s">
         <v>113</v>
       </c>
-      <c r="B18" s="39">
+      <c r="B18" s="37">
         <v>19</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="38">
         <v>25</v>
       </c>
       <c r="D18">
@@ -2876,13 +2879,13 @@
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" s="41" t="s">
+      <c r="A19" s="39" t="s">
         <v>114</v>
       </c>
-      <c r="B19" s="42">
+      <c r="B19" s="40">
         <v>110</v>
       </c>
-      <c r="C19" s="43"/>
+      <c r="C19" s="41"/>
       <c r="D19">
         <v>0.15</v>
       </c>
@@ -2892,13 +2895,13 @@
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="38" t="s">
+      <c r="A20" s="36" t="s">
         <v>1</v>
       </c>
-      <c r="B20" s="39">
+      <c r="B20" s="37">
         <v>166</v>
       </c>
-      <c r="C20" s="40">
+      <c r="C20" s="38">
         <v>175</v>
       </c>
       <c r="D20">
@@ -2910,13 +2913,13 @@
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="41" t="s">
+      <c r="A21" s="39" t="s">
         <v>115</v>
       </c>
-      <c r="B21" s="42">
+      <c r="B21" s="40">
         <v>24</v>
       </c>
-      <c r="C21" s="43" t="s">
+      <c r="C21" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D21">
@@ -2928,13 +2931,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="B22" s="39">
+      <c r="B22" s="37">
         <v>142</v>
       </c>
-      <c r="C22" s="40">
+      <c r="C22" s="38">
         <v>150</v>
       </c>
       <c r="D22">
@@ -2946,13 +2949,13 @@
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="41" t="s">
+      <c r="A23" s="39" t="s">
         <v>5</v>
       </c>
-      <c r="B23" s="42">
+      <c r="B23" s="40">
         <v>9</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D23">
@@ -2964,13 +2967,13 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="38" t="s">
+      <c r="A24" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="39">
+      <c r="B24" s="37">
         <v>13</v>
       </c>
-      <c r="C24" s="40" t="s">
+      <c r="C24" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D24">
@@ -2982,13 +2985,13 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="41" t="s">
+      <c r="A25" s="39" t="s">
         <v>118</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B25" s="40">
         <v>12</v>
       </c>
-      <c r="C25" s="43" t="s">
+      <c r="C25" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D25">
@@ -3000,13 +3003,13 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="38" t="s">
+      <c r="A26" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="B26" s="39">
+      <c r="B26" s="37">
         <v>2</v>
       </c>
-      <c r="C26" s="40" t="s">
+      <c r="C26" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D26">
@@ -3018,13 +3021,13 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="41" t="s">
+      <c r="A27" s="39" t="s">
         <v>120</v>
       </c>
-      <c r="B27" s="42">
+      <c r="B27" s="40">
         <v>4</v>
       </c>
-      <c r="C27" s="43" t="s">
+      <c r="C27" s="41" t="s">
         <v>100</v>
       </c>
       <c r="D27">
@@ -3036,13 +3039,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="36" t="s">
         <v>121</v>
       </c>
-      <c r="B28" s="39">
+      <c r="B28" s="37">
         <v>2</v>
       </c>
-      <c r="C28" s="40" t="s">
+      <c r="C28" s="38" t="s">
         <v>100</v>
       </c>
       <c r="D28">
@@ -3054,13 +3057,13 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="41" t="s">
+      <c r="A29" s="39" t="s">
         <v>122</v>
       </c>
-      <c r="B29" s="42">
+      <c r="B29" s="40">
         <v>73</v>
       </c>
-      <c r="C29" s="43">
+      <c r="C29" s="41">
         <v>80</v>
       </c>
       <c r="D29">
@@ -3072,10 +3075,10 @@
       </c>
     </row>
     <row r="30" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="45" t="s">
+      <c r="A30" s="43" t="s">
         <v>124</v>
       </c>
-      <c r="E30" s="22">
+      <c r="E30" s="20">
         <f>SUM(E2:E29)</f>
         <v>103.34999999999998</v>
       </c>

--- a/Document Library/Bill Of Materials/V-King CoreXY V2 - Part Order List.xlsx
+++ b/Document Library/Bill Of Materials/V-King CoreXY V2 - Part Order List.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/3837cd5b4a1a02ac/Document Library/GitHub/V-King CoreXY/Document Library/Bill Of Materials/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="644" documentId="6_{B6BB48D1-6332-477D-B7B9-3E9DE76C918E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{A95AEACC-FAF3-4FC8-A77B-AF747E439616}"/>
+  <xr:revisionPtr revIDLastSave="646" documentId="6_{B6BB48D1-6332-477D-B7B9-3E9DE76C918E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{933C2622-6A36-4E1C-A655-3C33D9BAD444}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="810" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="BOM Overview" sheetId="7" r:id="rId1"/>
@@ -915,6 +915,8 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -924,8 +926,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="40% - Accent6" xfId="4" builtinId="51"/>
@@ -1753,7 +1753,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{252991A0-F9B1-4FB6-901D-4CCB3A2906EB}">
   <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:J1"/>
     </sheetView>
   </sheetViews>
@@ -1764,44 +1764,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27.75" x14ac:dyDescent="0.5">
-      <c r="A1" s="71" t="s">
+      <c r="A1" s="73" t="s">
         <v>95</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="71"/>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="72" t="s">
+      <c r="A2" s="74" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="72"/>
-      <c r="C2" s="72"/>
-      <c r="D2" s="72"/>
-      <c r="E2" s="72"/>
-      <c r="F2" s="72"/>
-      <c r="G2" s="72"/>
-      <c r="H2" s="72"/>
-      <c r="I2" s="72"/>
-      <c r="J2" s="72"/>
+      <c r="B2" s="74"/>
+      <c r="C2" s="74"/>
+      <c r="D2" s="74"/>
+      <c r="E2" s="74"/>
+      <c r="F2" s="74"/>
+      <c r="G2" s="74"/>
+      <c r="H2" s="74"/>
+      <c r="I2" s="74"/>
+      <c r="J2" s="74"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="73"/>
-      <c r="B3" s="73"/>
-      <c r="C3" s="73"/>
-      <c r="D3" s="73"/>
-      <c r="E3" s="73"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="73"/>
-      <c r="I3" s="73"/>
-      <c r="J3" s="73"/>
+      <c r="A3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="75"/>
+      <c r="D3" s="75"/>
+      <c r="E3" s="75"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="75"/>
+      <c r="H3" s="75"/>
+      <c r="I3" s="75"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="3"/>
@@ -1814,7 +1814,7 @@
       <c r="A5" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="B5" s="74">
+      <c r="B5" s="71">
         <f>'Complete Part List'!E4</f>
         <v>395</v>
       </c>
@@ -1823,16 +1823,16 @@
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="74">
+      <c r="B6" s="71">
         <f>'Complete Part List'!E32</f>
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="74">
+      <c r="B7" s="71">
         <v>50</v>
       </c>
     </row>
@@ -1840,21 +1840,21 @@
       <c r="A8" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="74">
+      <c r="B8" s="71">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
-      <c r="B9" s="74"/>
+      <c r="B9" s="71"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B10" s="75">
+      <c r="B10" s="72">
         <f>SUM(B5:B8)</f>
-        <v>976</v>
+        <v>973</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
@@ -1890,9 +1890,7 @@
   </sheetPr>
   <dimension ref="A1:J33"/>
   <sheetViews>
-    <sheetView zoomScale="86" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="86" zoomScaleNormal="96" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2410,7 +2408,7 @@
         <v>6</v>
       </c>
       <c r="E28" s="29">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F28" s="8" t="s">
         <v>27</v>
@@ -2485,7 +2483,7 @@
       <c r="D32" s="48"/>
       <c r="E32" s="49">
         <f>SUM(E6:E31)</f>
-        <v>531</v>
+        <v>528</v>
       </c>
       <c r="F32" s="21"/>
       <c r="G32" s="18"/>
@@ -2499,7 +2497,7 @@
       <c r="D33" s="51"/>
       <c r="E33" s="52">
         <f>E4+E32</f>
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
   </sheetData>
